--- a/Documentation/Experiments/LoadBalancingApplication.xlsx
+++ b/Documentation/Experiments/LoadBalancingApplication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Load Balance 10" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="27">
   <si>
     <t>Run 1</t>
   </si>
@@ -96,12 +96,25 @@
   <si>
     <t>Load Balance 30 requests - pre-process (w load balancing)</t>
   </si>
+  <si>
+    <t>Percentage change in avg request time by implementing load balancing</t>
+  </si>
+  <si>
+    <t>Percentage change in avg edge CPU by implementing load balancing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,10 +140,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -147,9 +161,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -199,7 +224,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Average request time with 10 requests</a:t>
+              <a:t>Request time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -212,26 +237,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -241,14 +246,182 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Average request time no pre-process</c:v>
+            <c:v>No pre-processing with 10 requests</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 10'!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.4491399999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000018-C600-47A8-A53D-BE2223539AF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pre-processing without load balancing with 10 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 10'!$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.3907400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000019-C600-47A8-A53D-BE2223539AF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pre-processing with load balancing with 10 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 10'!$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.3971400000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000001A-C600-47A8-A53D-BE2223539AF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>No pre-processing with 30 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -257,6 +430,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -316,31 +490,34 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Load Balance 10'!$C$4</c:f>
+              <c:f>'Load Balance 30'!$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.4491399999999999</c:v>
+                  <c:v>6.0008999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7090-44CF-95B5-FD9DD97E3885}"/>
+              <c16:uniqueId val="{00000013-C600-47A8-A53D-BE2223539AF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>Average request time pre-process without load balancing</c:v>
+            <c:v>Pre-processing without load balancing with 30 requests</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -349,6 +526,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -408,31 +586,34 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Load Balance 10'!$L$4</c:f>
+              <c:f>'Load Balance 30'!$L$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.3907400000000001</c:v>
+                  <c:v>15.0648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7090-44CF-95B5-FD9DD97E3885}"/>
+              <c16:uniqueId val="{00000015-C600-47A8-A53D-BE2223539AF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>Average request time pre-processing with load balancing</c:v>
+            <c:v>Pre-processing with load balancing with 30 requests</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -441,6 +622,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -500,19 +682,19 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Load Balance 10'!$U$4</c:f>
+              <c:f>'Load Balance 30'!$U$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.3971400000000003</c:v>
+                  <c:v>9.3452200000000012</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7090-44CF-95B5-FD9DD97E3885}"/>
+              <c16:uniqueId val="{00000017-C600-47A8-A53D-BE2223539AF9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -589,8 +771,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
-                  <a:t>Request Time (s)</a:t>
+                  <a:t>Request</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> Time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -602,26 +789,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -658,13 +825,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -701,21 +861,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -769,7 +914,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Total request time with 10 requests</a:t>
+              <a:t>Total request time</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -782,26 +927,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -811,14 +936,182 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Total request time no pre-process</c:v>
+            <c:v>No pre-processing with 10 requests</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 10'!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2.9662199999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-83A9-4CF6-99C1-E4F0EF5C23BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pre-processing without load balancing with 10 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 10'!$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.7347200000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-83A9-4CF6-99C1-E4F0EF5C23BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pre-processing with load balancing with 10 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 10'!$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.8607000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-83A9-4CF6-99C1-E4F0EF5C23BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>No pre-processing with 30 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -827,6 +1120,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -886,31 +1180,34 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Load Balance 10'!$B$4</c:f>
+              <c:f>'Load Balance 30'!$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.9662199999999999</c:v>
+                  <c:v>8.3029600000000023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2033-4ACD-9410-FEED30040282}"/>
+              <c16:uniqueId val="{00000001-83A9-4CF6-99C1-E4F0EF5C23BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>Total request time pre-process without load balancing</c:v>
+            <c:v>Pre-processing without load balancing with 30 requests</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -919,6 +1216,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -978,31 +1276,34 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Load Balance 10'!$K$4</c:f>
+              <c:f>'Load Balance 30'!$K$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.7347200000000003</c:v>
+                  <c:v>16.877640000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2033-4ACD-9410-FEED30040282}"/>
+              <c16:uniqueId val="{00000003-83A9-4CF6-99C1-E4F0EF5C23BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>Total request time pre-process with load balancing</c:v>
+            <c:v>Pre-processing with load balancing with 30 requests</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1011,6 +1312,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1070,19 +1372,19 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Load Balance 10'!$T$4</c:f>
+              <c:f>'Load Balance 30'!$T$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.8607000000000005</c:v>
+                  <c:v>12.56146</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-2033-4ACD-9410-FEED30040282}"/>
+              <c16:uniqueId val="{00000005-83A9-4CF6-99C1-E4F0EF5C23BD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1177,26 +1479,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1233,13 +1515,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1276,21 +1551,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1344,7 +1604,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
-              <a:t>Edge node CPU use with 10 requests</a:t>
+              <a:t>Edge node CPU use</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1357,26 +1617,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1386,14 +1626,182 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Edge CPU use no pre-process</c:v>
+            <c:v>No pre-processing with 10 requests</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 10'!$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.0693999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-D5AD-4E19-8145-232066724844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pre-processing without load balancing with 10 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 10'!$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>92.18719999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-D5AD-4E19-8145-232066724844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pre-processing with load balancing with 10 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 10'!$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>91.197599999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-D5AD-4E19-8145-232066724844}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>No pre-processing with 30 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1402,6 +1810,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1461,31 +1870,34 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Load Balance 10'!$E$4</c:f>
+              <c:f>'Load Balance 30'!$E$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5.0693999999999999</c:v>
+                  <c:v>5.7951999999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C610-4545-AED9-63FDA5D3522C}"/>
+              <c16:uniqueId val="{00000001-D5AD-4E19-8145-232066724844}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:v>Edge CPU use pre-process without load balancing</c:v>
+            <c:v>Pre-processing without load balancing with 30 requests</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1494,6 +1906,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1553,31 +1966,34 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Load Balance 10'!$N$4</c:f>
+              <c:f>'Load Balance 30'!$N$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>92.18719999999999</c:v>
+                  <c:v>94.458199999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C610-4545-AED9-63FDA5D3522C}"/>
+              <c16:uniqueId val="{00000003-D5AD-4E19-8145-232066724844}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
-            <c:v>Edge CPU use with load balancing</c:v>
+            <c:v>Pre-processing with load balancing with 30 requests</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1586,6 +2002,7 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -1645,19 +2062,19 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Load Balance 10'!$W$4</c:f>
+              <c:f>'Load Balance 30'!$W$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>91.197599999999994</c:v>
+                  <c:v>92.225800000000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C610-4545-AED9-63FDA5D3522C}"/>
+              <c16:uniqueId val="{00000005-D5AD-4E19-8145-232066724844}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1752,26 +2169,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
@@ -1808,13 +2205,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -1851,21 +2241,6 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -1885,6 +2260,692 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Centre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t> CPU use</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>No pre-processing with 10 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 10'!$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50.871600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C475-44CA-97AD-DDBE6FB07FA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Pre-processing without load balancing with 10 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 10'!$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>58.190600000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C475-44CA-97AD-DDBE6FB07FA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Pre-processing with load balancing with 10 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 10'!$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>50.749600000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C475-44CA-97AD-DDBE6FB07FA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>No pre-processing with 30 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30'!$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>43.792200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C475-44CA-97AD-DDBE6FB07FA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Pre-processing without load balancing with 30 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30'!$O$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52.753799999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C475-44CA-97AD-DDBE6FB07FA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Pre-processing with load balancing with 30 requests</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30'!$X$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>52.692999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-C475-44CA-97AD-DDBE6FB07FA9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1622670096"/>
+        <c:axId val="1529553648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1622670096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1529553648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1529553648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>CPU use</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622670096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2454,7 +3515,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3029,7 +4090,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3604,6 +4665,589 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Centre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t> CPU use with 30 requests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Edge CPU use no pre-process</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30'!$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>5.7951999999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1302-4022-95AA-EF7AF3CE7875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Edge CPU use pre-process without load balancing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30'!$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>94.458199999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1302-4022-95AA-EF7AF3CE7875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Edge CPU use with load balancing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30'!$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>92.225800000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1302-4022-95AA-EF7AF3CE7875}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1622670096"/>
+        <c:axId val="1529553648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1622670096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1529553648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1529553648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>CPU use</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622670096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3725,86 +5369,6 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5856,1012 +7420,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -6869,13 +7427,13 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6903,13 +7461,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>4762</xdr:colOff>
+      <xdr:colOff>4761</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>309562</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -6944,8 +7502,8 @@
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>300037</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -6967,6 +7525,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2CDE523-295D-403F-A2F2-BB65A5016C02}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7086,6 +7682,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{694D6B28-442B-4D0B-865B-ED5D07F07657}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7359,8 +7993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="V25" workbookViewId="0">
+      <selection activeCell="AN51" sqref="AN51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7394,43 +8028,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="T2" s="5" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="T2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -7639,7 +8273,7 @@
       </c>
       <c r="H5" s="3">
         <f t="shared" si="0"/>
-        <v>8.4327404271158023E-4</v>
+        <v>8.4327404271156863E-4</v>
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
@@ -7718,17 +8352,51 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8">
+        <f>(L4-U4)/U4</f>
+        <v>-1.1858132270054478E-3</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8">
+        <f>(N4-W4)/W4</f>
+        <v>1.0851162749896882E-2</v>
+      </c>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
       <c r="Z7" s="3"/>
       <c r="AA7" s="3"/>
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="8"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
       <c r="Z9" s="3"/>
       <c r="AA9" s="3"/>
       <c r="AB9" s="3"/>
@@ -7742,36 +8410,36 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="K12" s="5" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="T12" s="5" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="T12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -8827,36 +9495,36 @@
       <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="K28" s="5" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="K28" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="T28" s="5" t="s">
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="T28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -9937,36 +10605,36 @@
       <c r="A44" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="K44" s="5" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="K44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="T44" s="5" t="s">
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="T44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -11020,36 +11688,36 @@
       <c r="A60" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="K60" s="5" t="s">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="K60" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="T60" s="5" t="s">
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="T60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -12104,36 +12772,36 @@
       <c r="A76" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="K76" s="5" t="s">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="K76" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="T76" s="5" t="s">
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="T76" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="6"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
@@ -13109,8 +13777,7 @@
         <v>4.2163702135578438E-3</v>
       </c>
       <c r="H89">
-        <f t="shared" si="106"/>
-        <v>5.851389114294502E-17</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <f t="shared" si="106"/>
@@ -13182,13 +13849,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="T2:AA2"/>
+  <mergeCells count="23">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="K76:R76"/>
@@ -13202,6 +13863,16 @@
     <mergeCell ref="B28:I28"/>
     <mergeCell ref="K28:R28"/>
     <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="L7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="P7:Q9"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="T60:AA60"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="R7:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13212,8 +13883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L55" workbookViewId="0">
-      <selection activeCell="AB87" sqref="AB87"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13247,43 +13918,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="K2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="K2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="T2" s="5" t="s">
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="T2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
-      <c r="AA2" s="5"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -13572,16 +14243,45 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="7"/>
+      <c r="N7" s="8">
+        <f>(L4-U4)/U4</f>
+        <v>0.6120326755282377</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="8">
+        <f>(N4-W4)/W4</f>
+        <v>2.4205807919258863E-2</v>
+      </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="8"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="8"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="8"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
@@ -13595,36 +14295,36 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="K12" s="5" t="s">
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="K12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="T12" s="5" t="s">
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="T12" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
-      <c r="AA12" s="5"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="6"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="6"/>
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -14679,36 +15379,36 @@
       <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="K28" s="5" t="s">
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="K28" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="5"/>
-      <c r="Q28" s="5"/>
-      <c r="R28" s="5"/>
-      <c r="T28" s="5" t="s">
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" s="6"/>
+      <c r="T28" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="5"/>
-      <c r="X28" s="5"/>
-      <c r="Y28" s="5"/>
-      <c r="Z28" s="5"/>
-      <c r="AA28" s="5"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="6"/>
+      <c r="W28" s="6"/>
+      <c r="X28" s="6"/>
+      <c r="Y28" s="6"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -15790,36 +16490,36 @@
       <c r="A44" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="K44" s="5" t="s">
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="K44" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
-      <c r="N44" s="5"/>
-      <c r="O44" s="5"/>
-      <c r="P44" s="5"/>
-      <c r="Q44" s="5"/>
-      <c r="R44" s="5"/>
-      <c r="T44" s="5" t="s">
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="6"/>
+      <c r="Q44" s="6"/>
+      <c r="R44" s="6"/>
+      <c r="T44" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-      <c r="Y44" s="5"/>
-      <c r="Z44" s="5"/>
-      <c r="AA44" s="5"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="6"/>
+      <c r="W44" s="6"/>
+      <c r="X44" s="6"/>
+      <c r="Y44" s="6"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -16876,36 +17576,36 @@
       <c r="A60" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="K60" s="5" t="s">
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="K60" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L60" s="5"/>
-      <c r="M60" s="5"/>
-      <c r="N60" s="5"/>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="T60" s="5" t="s">
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="T60" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U60" s="5"/>
-      <c r="V60" s="5"/>
-      <c r="W60" s="5"/>
-      <c r="X60" s="5"/>
-      <c r="Y60" s="5"/>
-      <c r="Z60" s="5"/>
-      <c r="AA60" s="5"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -17962,36 +18662,36 @@
       <c r="A76" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="5"/>
-      <c r="F76" s="5"/>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
-      <c r="K76" s="5" t="s">
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="6"/>
+      <c r="I76" s="6"/>
+      <c r="K76" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="L76" s="5"/>
-      <c r="M76" s="5"/>
-      <c r="N76" s="5"/>
-      <c r="O76" s="5"/>
-      <c r="P76" s="5"/>
-      <c r="Q76" s="5"/>
-      <c r="R76" s="5"/>
-      <c r="T76" s="5" t="s">
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="6"/>
+      <c r="O76" s="6"/>
+      <c r="P76" s="6"/>
+      <c r="Q76" s="6"/>
+      <c r="R76" s="6"/>
+      <c r="T76" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="U76" s="5"/>
-      <c r="V76" s="5"/>
-      <c r="W76" s="5"/>
-      <c r="X76" s="5"/>
-      <c r="Y76" s="5"/>
-      <c r="Z76" s="5"/>
-      <c r="AA76" s="5"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="6"/>
+      <c r="W76" s="6"/>
+      <c r="X76" s="6"/>
+      <c r="Y76" s="6"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="6"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
@@ -19040,19 +19740,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="19">
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="K76:R76"/>
-    <mergeCell ref="T76:AA76"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="T28:AA28"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="K44:R44"/>
-    <mergeCell ref="T44:AA44"/>
+  <mergeCells count="23">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="K2:R2"/>
@@ -19060,6 +19748,22 @@
     <mergeCell ref="B12:I12"/>
     <mergeCell ref="K12:R12"/>
     <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="L7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="P7:Q9"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="K44:R44"/>
+    <mergeCell ref="T44:AA44"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="T60:AA60"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="K76:R76"/>
+    <mergeCell ref="T76:AA76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documentation/Experiments/LoadBalancingApplication.xlsx
+++ b/Documentation/Experiments/LoadBalancingApplication.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Load Balance 10" sheetId="1" r:id="rId1"/>
     <sheet name="Load Balance 30" sheetId="4" r:id="rId2"/>
+    <sheet name="Load Balance 30 3 instances" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="28">
   <si>
     <t>Run 1</t>
   </si>
@@ -102,6 +103,9 @@
   <si>
     <t>Percentage change in avg edge CPU by implementing load balancing</t>
   </si>
+  <si>
+    <t>Load Balance 30 requests - pre-process (w/o load balancing) (3 instances of application)</t>
+  </si>
 </sst>
 </file>
 
@@ -144,7 +148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -164,13 +168,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,6 +868,1739 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Total request time with 30 requests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Total request time no pre-process</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB35-4090-9283-3EABAAC19381}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Total request time pre-process without load balancing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$K$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FB35-4090-9283-3EABAAC19381}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Total request time pre-process with load balancing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$T$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FB35-4090-9283-3EABAAC19381}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1527237136"/>
+        <c:axId val="1529480848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1527237136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1529480848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1529480848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Request Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1527237136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Edge node CPU use with 30 requests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Edge CPU use no pre-process</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4C3B-498C-9409-DDB613773DB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Edge CPU use pre-process without load balancing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4C3B-498C-9409-DDB613773DB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Edge CPU use with load balancing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4C3B-498C-9409-DDB613773DB4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1622670096"/>
+        <c:axId val="1529553648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1622670096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1529553648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1529553648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>CPU use</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622670096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Centre</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t> CPU use with 30 requests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Edge CPU use no pre-process</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FFEE-4CAB-A8F1-1BFDB3C1FD86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Edge CPU use pre-process without load balancing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FFEE-4CAB-A8F1-1BFDB3C1FD86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Edge CPU use with load balancing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$W$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FFEE-4CAB-A8F1-1BFDB3C1FD86}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1622670096"/>
+        <c:axId val="1529553648"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1622670096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1529553648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1529553648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>CPU use</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> (%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1622670096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
   <c:txPr>
     <a:bodyPr/>
     <a:lstStyle/>
@@ -5248,6 +6988,576 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average request time with 30 requests</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Average request time no pre-process</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7B1E-40B5-AFC9-0540955CEA70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Average request time pre-process without load balancing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7B1E-40B5-AFC9-0540955CEA70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Average request time pre-processing with load balancing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$U$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7B1E-40B5-AFC9-0540955CEA70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1522285952"/>
+        <c:axId val="1529488192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1522285952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1529488192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1529488192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Request Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1522285952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5369,6 +7679,166 @@
 </file>
 
 <file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7420,6 +9890,2018 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7728,6 +12210,163 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B974930-D2C8-4541-A5E3-45F48164A3B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B99BA2C-F777-4423-8D45-AA689EACA081}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>1147762</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86CBB348-94C5-433B-A055-F95BD0D8A012}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C30EAF-5EA3-4336-B2A3-8A74AA4A8373}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7993,7 +12632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V25" workbookViewId="0">
+    <sheetView topLeftCell="V25" workbookViewId="0">
       <selection activeCell="AN51" sqref="AN51"/>
     </sheetView>
   </sheetViews>
@@ -8028,43 +12667,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="T2" s="6" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="T2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -8353,19 +12992,19 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8">
+      <c r="M7" s="9"/>
+      <c r="N7" s="10">
         <f>(L4-U4)/U4</f>
         <v>-1.1858132270054478E-3</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10">
         <f>(N4-W4)/W4</f>
         <v>1.0851162749896882E-2</v>
       </c>
@@ -8376,12 +13015,12 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="Z8" s="3"/>
@@ -8389,12 +13028,12 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="10"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="Z9" s="3"/>
@@ -8410,36 +13049,36 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="T12" s="6" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="T12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -9495,36 +14134,36 @@
       <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="K28" s="6" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="K28" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="T28" s="6" t="s">
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="T28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -10605,36 +15244,36 @@
       <c r="A44" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="K44" s="6" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="K44" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="T44" s="6" t="s">
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="T44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -11688,36 +16327,36 @@
       <c r="A60" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="K60" s="6" t="s">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="K60" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="T60" s="6" t="s">
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="T60" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-      <c r="AA60" s="6"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -12772,36 +17411,36 @@
       <c r="A76" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="K76" s="6" t="s">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="K76" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="T76" s="6" t="s">
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="T76" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
-      <c r="AA76" s="6"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
@@ -13850,6 +18489,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="T60:AA60"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="R7:R9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="K76:R76"/>
@@ -13866,13 +18512,6 @@
     <mergeCell ref="L7:M9"/>
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="P7:Q9"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="R7:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13883,7 +18522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="AB47" sqref="AB47"/>
     </sheetView>
   </sheetViews>
@@ -13918,43 +18557,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="K2" s="6" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="T2" s="6" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="T2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -14243,19 +18882,19 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8">
+      <c r="M7" s="9"/>
+      <c r="N7" s="10">
         <f>(L4-U4)/U4</f>
         <v>0.6120326755282377</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="P7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="8">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10">
         <f>(N4-W4)/W4</f>
         <v>2.4205807919258863E-2</v>
       </c>
@@ -14264,24 +18903,24 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="8"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="10"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
@@ -14295,36 +18934,36 @@
       <c r="A12" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="K12" s="6" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="T12" s="6" t="s">
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="T12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U12" s="6"/>
-      <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="6"/>
-      <c r="Y12" s="6"/>
-      <c r="Z12" s="6"/>
-      <c r="AA12" s="6"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
       <c r="AB12" s="4"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
@@ -15379,36 +20018,36 @@
       <c r="A28" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="K28" s="6" t="s">
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="K28" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="6"/>
-      <c r="Q28" s="6"/>
-      <c r="R28" s="6"/>
-      <c r="T28" s="6" t="s">
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="T28" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U28" s="6"/>
-      <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="6"/>
-      <c r="Y28" s="6"/>
-      <c r="Z28" s="6"/>
-      <c r="AA28" s="6"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -16490,36 +21129,36 @@
       <c r="A44" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
-      <c r="I44" s="6"/>
-      <c r="K44" s="6" t="s">
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="K44" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L44" s="6"/>
-      <c r="M44" s="6"/>
-      <c r="N44" s="6"/>
-      <c r="O44" s="6"/>
-      <c r="P44" s="6"/>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="T44" s="6" t="s">
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="T44" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U44" s="6"/>
-      <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-      <c r="X44" s="6"/>
-      <c r="Y44" s="6"/>
-      <c r="Z44" s="6"/>
-      <c r="AA44" s="6"/>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
@@ -17576,36 +22215,36 @@
       <c r="A60" t="s">
         <v>1</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="K60" s="6" t="s">
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="K60" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="T60" s="6" t="s">
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="T60" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-      <c r="AA60" s="6"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -18662,36 +23301,36 @@
       <c r="A76" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
-      <c r="G76" s="6"/>
-      <c r="H76" s="6"/>
-      <c r="I76" s="6"/>
-      <c r="K76" s="6" t="s">
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="K76" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L76" s="6"/>
-      <c r="M76" s="6"/>
-      <c r="N76" s="6"/>
-      <c r="O76" s="6"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="T76" s="6" t="s">
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="T76" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="U76" s="6"/>
-      <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-      <c r="X76" s="6"/>
-      <c r="Y76" s="6"/>
-      <c r="Z76" s="6"/>
-      <c r="AA76" s="6"/>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
@@ -19741,6 +24380,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="T60:AA60"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="K76:R76"/>
+    <mergeCell ref="T76:AA76"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="K44:R44"/>
+    <mergeCell ref="T44:AA44"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="K2:R2"/>
@@ -19752,18 +24403,2297 @@
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="P7:Q9"/>
     <mergeCell ref="R7:R9"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="T28:AA28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
+    <col min="15" max="15" width="19.42578125" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" customWidth="1"/>
+    <col min="17" max="17" width="13.7109375" customWidth="1"/>
+    <col min="18" max="18" width="20" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" customWidth="1"/>
+    <col min="21" max="21" width="17" customWidth="1"/>
+    <col min="22" max="22" width="13.28515625" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="19.42578125" customWidth="1"/>
+    <col min="25" max="25" width="13.85546875" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
+    <col min="27" max="27" width="20" customWidth="1"/>
+    <col min="28" max="28" width="17.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="K2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="T2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
+      <c r="X2" s="8"/>
+      <c r="Y2" s="8"/>
+      <c r="Z2" s="8"/>
+      <c r="AA2" s="8"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>2</v>
+      </c>
+      <c r="U3" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" t="s">
+        <v>3</v>
+      </c>
+      <c r="W3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="6" t="e">
+        <f t="shared" ref="B4:I5" si="0">AVERAGE(B24,B40,B56,B72,B88)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="e">
+        <f t="shared" ref="K4:R5" si="1">AVERAGE(K24,K40,K56,K72,K88)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M4" s="6" t="e">
+        <f>AVERAGE(M24,M40,M56,M71,M88)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R4" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6" t="e">
+        <f t="shared" ref="T4:AA5" si="2">AVERAGE(T24,T40,T56,T72,T88)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U4" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V4" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W4" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X4" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y4" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z4" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA4" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O5" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P5" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q5" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R5" s="6" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA5" s="6" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" s="6"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6"/>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10" t="e">
+        <f>(L4-U4)/U4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10" t="e">
+        <f>(N4-W4)/W4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6"/>
+      <c r="AB7" s="6"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10"/>
+      <c r="Z8" s="6"/>
+      <c r="AA8" s="6"/>
+      <c r="AB8" s="6"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="10"/>
+      <c r="Z9" s="6"/>
+      <c r="AA9" s="6"/>
+      <c r="AB9" s="6"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="K12" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="8"/>
+      <c r="T12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="6"/>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>8</v>
+      </c>
+      <c r="K13" t="s">
+        <v>2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>16</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13" t="s">
+        <v>5</v>
+      </c>
+      <c r="P13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>7</v>
+      </c>
+      <c r="R13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T13" t="s">
+        <v>2</v>
+      </c>
+      <c r="U13" t="s">
+        <v>16</v>
+      </c>
+      <c r="V13" t="s">
+        <v>3</v>
+      </c>
+      <c r="W13" t="s">
+        <v>4</v>
+      </c>
+      <c r="X13" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="e">
+        <f>AVERAGE(B14:B23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C24" t="e">
+        <f t="shared" ref="C24:AA24" si="3">AVERAGE(C14:C23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W24">
+        <v>89.29</v>
+      </c>
+      <c r="X24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" t="e">
+        <f>STDEV(B14:B23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" t="e">
+        <f t="shared" ref="C25:AA25" si="4">STDEV(C14:C23)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="K28" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="T28" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>6</v>
+      </c>
+      <c r="H29" t="s">
+        <v>7</v>
+      </c>
+      <c r="I29" t="s">
+        <v>8</v>
+      </c>
+      <c r="K29" t="s">
+        <v>2</v>
+      </c>
+      <c r="L29" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" t="s">
+        <v>5</v>
+      </c>
+      <c r="P29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>7</v>
+      </c>
+      <c r="R29" t="s">
+        <v>8</v>
+      </c>
+      <c r="T29" t="s">
+        <v>2</v>
+      </c>
+      <c r="U29" t="s">
+        <v>16</v>
+      </c>
+      <c r="V29" t="s">
+        <v>3</v>
+      </c>
+      <c r="W29" t="s">
+        <v>4</v>
+      </c>
+      <c r="X29" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" t="e">
+        <f>AVERAGE(B30:B39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C40" t="e">
+        <f t="shared" ref="C40:I40" si="5">AVERAGE(C30:C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D40" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E40" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F40" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G40" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H40" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I40" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40" t="e">
+        <f t="shared" ref="K40:R40" si="6">AVERAGE(K30:K39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M40" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N40" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O40" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P40" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q40" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R40" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T40" t="e">
+        <f t="shared" ref="T40:AA40" si="7">AVERAGE(T30:T39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U40" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V40" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W40" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X40" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y40" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z40" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA40" t="e">
+        <f t="shared" si="7"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" t="e">
+        <f>STDEV(B30:B39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C41" t="e">
+        <f t="shared" ref="C41:I41" si="8">STDEV(C30:C39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I41" t="e">
+        <f t="shared" si="8"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K41" t="e">
+        <f t="shared" ref="K41:R41" si="9">STDEV(K30:K39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R41" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T41" t="e">
+        <f t="shared" ref="T41:AA41" si="10">STDEV(T30:T39)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U41" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V41" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W41" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X41" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y41" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z41" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA41" t="e">
+        <f t="shared" si="10"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="6"/>
+      <c r="M42" s="6"/>
+      <c r="N42" s="6"/>
+      <c r="O42" s="6"/>
+      <c r="P42" s="6"/>
+      <c r="Q42" s="6"/>
+      <c r="R42" s="6"/>
+      <c r="T42" s="6"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="6"/>
+      <c r="W42" s="6"/>
+      <c r="X42" s="6"/>
+      <c r="Y42" s="6"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="K44" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="T44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U44" s="8"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="8"/>
+      <c r="X44" s="8"/>
+      <c r="Y44" s="8"/>
+      <c r="Z44" s="8"/>
+      <c r="AA44" s="8"/>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>6</v>
+      </c>
+      <c r="H45" t="s">
+        <v>7</v>
+      </c>
+      <c r="I45" t="s">
+        <v>8</v>
+      </c>
+      <c r="K45" t="s">
+        <v>2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>16</v>
+      </c>
+      <c r="M45" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" t="s">
+        <v>5</v>
+      </c>
+      <c r="P45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>7</v>
+      </c>
+      <c r="R45" t="s">
+        <v>8</v>
+      </c>
+      <c r="T45" t="s">
+        <v>2</v>
+      </c>
+      <c r="U45" t="s">
+        <v>16</v>
+      </c>
+      <c r="V45" t="s">
+        <v>3</v>
+      </c>
+      <c r="W45" t="s">
+        <v>4</v>
+      </c>
+      <c r="X45" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" t="e">
+        <f>AVERAGE(B46:B55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C56" t="e">
+        <f t="shared" ref="C56:I56" si="11">AVERAGE(C46:C55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D56" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E56" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F56" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G56" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H56" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I56" t="e">
+        <f t="shared" si="11"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K56" t="e">
+        <f t="shared" ref="K56:R56" si="12">AVERAGE(K46:K55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L56" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M56" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N56" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O56" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P56" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q56" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R56" t="e">
+        <f t="shared" si="12"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T56" t="e">
+        <f t="shared" ref="T56:AA56" si="13">AVERAGE(T46:T55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U56" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V56" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W56" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X56" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y56" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z56" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA56" t="e">
+        <f t="shared" si="13"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>18</v>
+      </c>
+      <c r="B57" t="e">
+        <f>STDEV(B46:B55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C57" t="e">
+        <f t="shared" ref="C57:I57" si="14">STDEV(C46:C55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D57" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E57" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F57" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G57" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H57" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I57" t="e">
+        <f t="shared" si="14"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K57" t="e">
+        <f t="shared" ref="K57:R57" si="15">STDEV(K46:K55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L57" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M57" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N57" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P57" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q57" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R57" t="e">
+        <f t="shared" si="15"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T57" t="e">
+        <f t="shared" ref="T57:AA57" si="16">STDEV(T46:T55)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U57" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V57" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W57" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X57" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y57" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z57" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA57" t="e">
+        <f t="shared" si="16"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="K60" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="T60" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>6</v>
+      </c>
+      <c r="H61" t="s">
+        <v>7</v>
+      </c>
+      <c r="I61" t="s">
+        <v>8</v>
+      </c>
+      <c r="K61" t="s">
+        <v>2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>16</v>
+      </c>
+      <c r="M61" t="s">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s">
+        <v>4</v>
+      </c>
+      <c r="O61" t="s">
+        <v>5</v>
+      </c>
+      <c r="P61" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>7</v>
+      </c>
+      <c r="R61" t="s">
+        <v>8</v>
+      </c>
+      <c r="T61" t="s">
+        <v>2</v>
+      </c>
+      <c r="U61" t="s">
+        <v>16</v>
+      </c>
+      <c r="V61" t="s">
+        <v>3</v>
+      </c>
+      <c r="W61" t="s">
+        <v>4</v>
+      </c>
+      <c r="X61" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA61" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>17</v>
+      </c>
+      <c r="B72" t="e">
+        <f>AVERAGE(B62:B71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C72" t="e">
+        <f t="shared" ref="C72:I72" si="17">AVERAGE(C62:C71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D72" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E72" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F72" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G72" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H72" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I72" t="e">
+        <f t="shared" si="17"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K72" t="e">
+        <f t="shared" ref="K72:R72" si="18">AVERAGE(K62:K71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L72" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M72" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N72" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O72" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P72" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q72" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R72" t="e">
+        <f t="shared" si="18"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T72" t="e">
+        <f t="shared" ref="T72:AA72" si="19">AVERAGE(T62:T71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U72" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V72" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W72" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X72" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y72" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z72" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA72" t="e">
+        <f t="shared" si="19"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B73" t="e">
+        <f>STDEV(B62:B71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C73" t="e">
+        <f t="shared" ref="C73:I73" si="20">STDEV(C62:C71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D73" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E73" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F73" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G73" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H73" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I73" t="e">
+        <f t="shared" si="20"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K73" t="e">
+        <f t="shared" ref="K73:R73" si="21">STDEV(K62:K71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L73" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M73" t="e">
+        <f>STDEV(M62:M70)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N73" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O73" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P73" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q73" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R73" t="e">
+        <f t="shared" si="21"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T73" t="e">
+        <f t="shared" ref="T73:AA73" si="22">STDEV(T62:T71)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U73" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V73" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W73" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X73" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y73" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z73" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA73" t="e">
+        <f t="shared" si="22"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="K76" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="8"/>
+      <c r="P76" s="8"/>
+      <c r="Q76" s="8"/>
+      <c r="R76" s="8"/>
+      <c r="T76" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="U76" s="8"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="8"/>
+      <c r="X76" s="8"/>
+      <c r="Y76" s="8"/>
+      <c r="Z76" s="8"/>
+      <c r="AA76" s="8"/>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>6</v>
+      </c>
+      <c r="H77" t="s">
+        <v>7</v>
+      </c>
+      <c r="I77" t="s">
+        <v>8</v>
+      </c>
+      <c r="K77" t="s">
+        <v>2</v>
+      </c>
+      <c r="L77" t="s">
+        <v>16</v>
+      </c>
+      <c r="M77" t="s">
+        <v>3</v>
+      </c>
+      <c r="N77" t="s">
+        <v>4</v>
+      </c>
+      <c r="O77" t="s">
+        <v>5</v>
+      </c>
+      <c r="P77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>7</v>
+      </c>
+      <c r="R77" t="s">
+        <v>8</v>
+      </c>
+      <c r="T77" t="s">
+        <v>2</v>
+      </c>
+      <c r="U77" t="s">
+        <v>16</v>
+      </c>
+      <c r="V77" t="s">
+        <v>3</v>
+      </c>
+      <c r="W77" t="s">
+        <v>4</v>
+      </c>
+      <c r="X77" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA77" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>17</v>
+      </c>
+      <c r="B88" t="e">
+        <f>AVERAGE(B78:B87)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C88" t="e">
+        <f t="shared" ref="C88:I88" si="23">AVERAGE(C78:C87)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D88" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E88" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F88" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G88" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H88" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I88" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K88" t="e">
+        <f t="shared" ref="K88:R88" si="24">AVERAGE(K78:K87)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L88" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M88" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N88" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O88" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P88" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q88" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R88" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T88" t="e">
+        <f t="shared" ref="T88:AA88" si="25">AVERAGE(T78:T87)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U88" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V88" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W88" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X88" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y88" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z88" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA88" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" t="e">
+        <f>STDEV(B78:B87)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C89" t="e">
+        <f t="shared" ref="C89:I89" si="26">STDEV(C78:C87)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D89" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E89" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F89" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G89" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H89" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I89" t="e">
+        <f t="shared" si="26"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K89" t="e">
+        <f t="shared" ref="K89:R89" si="27">STDEV(K78:K87)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L89" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M89" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N89" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O89" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P89" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q89" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R89" t="e">
+        <f t="shared" si="27"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="T89" t="e">
+        <f t="shared" ref="T89:AA89" si="28">STDEV(T78:T87)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="U89" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="V89" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W89" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X89" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y89" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z89" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AA89" t="e">
+        <f t="shared" si="28"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="23">
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="K76:R76"/>
+    <mergeCell ref="T76:AA76"/>
     <mergeCell ref="B44:I44"/>
     <mergeCell ref="K44:R44"/>
     <mergeCell ref="T44:AA44"/>
     <mergeCell ref="B60:I60"/>
     <mergeCell ref="K60:R60"/>
     <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="K76:R76"/>
-    <mergeCell ref="T76:AA76"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="L7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="P7:Q9"/>
+    <mergeCell ref="R7:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documentation/Experiments/LoadBalancingApplication.xlsx
+++ b/Documentation/Experiments/LoadBalancingApplication.xlsx
@@ -172,11 +172,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1135,7 +1135,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>8.0446800000000014</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1710,7 +1710,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>74.386400000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2293,7 +2293,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>74.386400000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2540,6 +2540,970 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1622670096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Average Request Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 instance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30'!$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15.0648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D594-42DF-AFB9-044AFC8EDF9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3 instances</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$L$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6.8190600000000003</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D594-42DF-AFB9-044AFC8EDF9C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="435053919"/>
+        <c:axId val="430664143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="435053919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="430664143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="430664143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Request Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435053919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Edge node</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> CPU use</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>1 instance</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30'!$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>94.458199999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-07C7-4519-B8C8-E452B8039012}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>3 instances</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Load Balance 30 3 instances'!$N$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>74.386400000000009</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-07C7-4519-B8C8-E452B8039012}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="435053919"/>
+        <c:axId val="430664143"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="435053919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="430664143"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="430664143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Request Time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="435053919"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3807,7 +4771,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>92.225800000000007</c:v>
+                  <c:v>92.663200000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6171,7 +7135,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>92.225800000000007</c:v>
+                  <c:v>92.663200000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6754,7 +7718,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>92.225800000000007</c:v>
+                  <c:v>92.663200000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7237,7 +8201,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6.8190600000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7598,6 +8562,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -7878,7 +8882,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -11902,6 +13449,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -12364,6 +14414,80 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95387200-C2D9-4930-8B1A-A6E560D080E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{084D99E5-E32B-4137-9BC9-ACFBB82CE39A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -12992,19 +15116,19 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10">
+      <c r="M7" s="10"/>
+      <c r="N7" s="9">
         <f>(L4-U4)/U4</f>
         <v>-1.1858132270054478E-3</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9">
         <f>(N4-W4)/W4</f>
         <v>1.0851162749896882E-2</v>
       </c>
@@ -13015,12 +15139,12 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="Z8" s="3"/>
@@ -13028,12 +15152,12 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="Z9" s="3"/>
@@ -18489,13 +20613,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="R7:R9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="K76:R76"/>
@@ -18512,6 +20629,13 @@
     <mergeCell ref="L7:M9"/>
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="P7:Q9"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="T60:AA60"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="R7:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -18522,8 +20646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AB47" sqref="AB47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V24" sqref="V24:W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18753,7 +20877,7 @@
       </c>
       <c r="W4" s="4">
         <f t="shared" si="2"/>
-        <v>92.225800000000007</v>
+        <v>92.663200000000003</v>
       </c>
       <c r="X4" s="4">
         <f t="shared" si="2"/>
@@ -18882,45 +21006,45 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10">
+      <c r="M7" s="10"/>
+      <c r="N7" s="9">
         <f>(L4-U4)/U4</f>
         <v>0.6120326755282377</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9">
         <f>(N4-W4)/W4</f>
-        <v>2.4205807919258863E-2</v>
+        <v>1.9371228276165591E-2</v>
       </c>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
@@ -19891,7 +22015,8 @@
         <v>5.0120000000000005</v>
       </c>
       <c r="W24">
-        <v>89.29</v>
+        <f t="shared" si="3"/>
+        <v>91.477000000000004</v>
       </c>
       <c r="X24">
         <f t="shared" si="3"/>
@@ -24380,18 +26505,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="K76:R76"/>
-    <mergeCell ref="T76:AA76"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="T28:AA28"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="K44:R44"/>
-    <mergeCell ref="T44:AA44"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="K2:R2"/>
@@ -24403,6 +26516,18 @@
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="P7:Q9"/>
     <mergeCell ref="R7:R9"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="K44:R44"/>
+    <mergeCell ref="T44:AA44"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="T60:AA60"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="K76:R76"/>
+    <mergeCell ref="T76:AA76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -24413,8 +26538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="U52" workbookViewId="0">
+      <selection activeCell="AG96" sqref="AG96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24597,37 +26722,37 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J4" s="6"/>
-      <c r="K4" s="6" t="e">
+      <c r="K4" s="6">
         <f t="shared" ref="K4:R5" si="1">AVERAGE(K24,K40,K56,K72,K88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L4" s="6" t="e">
+        <v>8.0446800000000014</v>
+      </c>
+      <c r="L4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M4" s="6" t="e">
+        <v>6.8190600000000003</v>
+      </c>
+      <c r="M4" s="6">
         <f>AVERAGE(M24,M40,M56,M71,M88)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N4" s="6" t="e">
+        <v>5.9403999999999995</v>
+      </c>
+      <c r="N4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O4" s="6" t="e">
+        <v>74.386400000000009</v>
+      </c>
+      <c r="O4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P4" s="6" t="e">
+        <v>60.058199999999999</v>
+      </c>
+      <c r="P4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q4" s="6" t="e">
+        <v>0.11539999999999999</v>
+      </c>
+      <c r="Q4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R4" s="6" t="e">
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="R4" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>8.0328000000000017</v>
       </c>
       <c r="S4" s="6"/>
       <c r="T4" s="6" t="e">
@@ -24700,37 +26825,37 @@
         <v>#DIV/0!</v>
       </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="6" t="e">
+      <c r="K5" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L5" s="6" t="e">
+        <v>0.78278497180236017</v>
+      </c>
+      <c r="L5" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M5" s="6" t="e">
+        <v>0.56427560241124886</v>
+      </c>
+      <c r="M5" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N5" s="6" t="e">
+        <v>0.49963223443211974</v>
+      </c>
+      <c r="N5" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O5" s="6" t="e">
+        <v>5.2517528005901699</v>
+      </c>
+      <c r="O5" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P5" s="6" t="e">
+        <v>6.6026587313990488</v>
+      </c>
+      <c r="P5" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q5" s="6" t="e">
+        <v>4.3391879539255657E-3</v>
+      </c>
+      <c r="Q5" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R5" s="6" t="e">
+        <v>2.6313428741016149E-3</v>
+      </c>
+      <c r="R5" s="6">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.20345663132930869</v>
       </c>
       <c r="S5" s="6"/>
       <c r="T5" s="6" t="e">
@@ -24773,19 +26898,19 @@
       <c r="AB6" s="6"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10" t="e">
+      <c r="M7" s="10"/>
+      <c r="N7" s="9" t="e">
         <f>(L4-U4)/U4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10" t="e">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9" t="e">
         <f>(N4-W4)/W4</f>
         <v>#DIV/0!</v>
       </c>
@@ -24794,24 +26919,24 @@
       <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
@@ -24935,51 +27060,291 @@
       <c r="A14">
         <v>1</v>
       </c>
+      <c r="K14">
+        <v>8.65</v>
+      </c>
+      <c r="L14">
+        <v>7.15</v>
+      </c>
+      <c r="M14">
+        <v>6.13</v>
+      </c>
+      <c r="N14">
+        <v>71.87</v>
+      </c>
+      <c r="O14">
+        <v>53.83</v>
+      </c>
+      <c r="P14">
+        <v>0.12</v>
+      </c>
+      <c r="Q14">
+        <v>0.11</v>
+      </c>
+      <c r="R14">
+        <v>8.0399999999999991</v>
+      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
+      <c r="K15">
+        <v>7.6769999999999996</v>
+      </c>
+      <c r="L15">
+        <v>6.3620000000000001</v>
+      </c>
+      <c r="M15">
+        <v>6.58</v>
+      </c>
+      <c r="N15">
+        <v>80.8</v>
+      </c>
+      <c r="O15">
+        <v>53.21</v>
+      </c>
+      <c r="P15">
+        <v>0.12</v>
+      </c>
+      <c r="Q15">
+        <v>0.11</v>
+      </c>
+      <c r="R15">
+        <v>8.06</v>
+      </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
+      <c r="K16">
+        <v>7.6310000000000002</v>
+      </c>
+      <c r="L16">
+        <v>6.3109999999999999</v>
+      </c>
+      <c r="M16">
+        <v>6.45</v>
+      </c>
+      <c r="N16">
+        <v>80.900000000000006</v>
+      </c>
+      <c r="O16">
+        <v>63.29</v>
+      </c>
+      <c r="P16">
+        <v>0.12</v>
+      </c>
+      <c r="Q16">
+        <v>0.11</v>
+      </c>
+      <c r="R16">
+        <v>8.06</v>
+      </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
+      <c r="K17">
+        <v>9.2590000000000003</v>
+      </c>
+      <c r="L17">
+        <v>6.5140000000000002</v>
+      </c>
+      <c r="M17">
+        <v>6.59</v>
+      </c>
+      <c r="N17">
+        <v>78.7</v>
+      </c>
+      <c r="O17">
+        <v>45.99</v>
+      </c>
+      <c r="P17">
+        <v>0.12</v>
+      </c>
+      <c r="Q17">
+        <v>0.11</v>
+      </c>
+      <c r="R17">
+        <v>8.11</v>
+      </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
+      <c r="K18">
+        <v>8.6989999999999998</v>
+      </c>
+      <c r="L18">
+        <v>7.3540000000000001</v>
+      </c>
+      <c r="M18">
+        <v>5.39</v>
+      </c>
+      <c r="N18">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="O18">
+        <v>54.94</v>
+      </c>
+      <c r="P18">
+        <v>0.12</v>
+      </c>
+      <c r="Q18">
+        <v>0.11</v>
+      </c>
+      <c r="R18">
+        <v>8.08</v>
+      </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>6</v>
       </c>
+      <c r="K19">
+        <v>7.516</v>
+      </c>
+      <c r="L19">
+        <v>6.2309999999999999</v>
+      </c>
+      <c r="M19">
+        <v>6.73</v>
+      </c>
+      <c r="N19">
+        <v>81.91</v>
+      </c>
+      <c r="O19">
+        <v>52.44</v>
+      </c>
+      <c r="P19">
+        <v>0.12</v>
+      </c>
+      <c r="Q19">
+        <v>0.11</v>
+      </c>
+      <c r="R19">
+        <v>8.08</v>
+      </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
+      <c r="K20">
+        <v>7.5129999999999999</v>
+      </c>
+      <c r="L20">
+        <v>6.1710000000000003</v>
+      </c>
+      <c r="M20">
+        <v>6.62</v>
+      </c>
+      <c r="N20">
+        <v>82.54</v>
+      </c>
+      <c r="O20">
+        <v>52.39</v>
+      </c>
+      <c r="P20">
+        <v>0.11</v>
+      </c>
+      <c r="Q20">
+        <v>0.11</v>
+      </c>
+      <c r="R20">
+        <v>8</v>
+      </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8</v>
       </c>
+      <c r="K21">
+        <v>7.8019999999999996</v>
+      </c>
+      <c r="L21">
+        <v>6.391</v>
+      </c>
+      <c r="M21">
+        <v>6.13</v>
+      </c>
+      <c r="N21">
+        <v>80.33</v>
+      </c>
+      <c r="O21">
+        <v>60.29</v>
+      </c>
+      <c r="P21">
+        <v>0.12</v>
+      </c>
+      <c r="Q21">
+        <v>0.11</v>
+      </c>
+      <c r="R21">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>9</v>
       </c>
+      <c r="K22">
+        <v>8.6739999999999995</v>
+      </c>
+      <c r="L22">
+        <v>7.2060000000000004</v>
+      </c>
+      <c r="M22">
+        <v>4.97</v>
+      </c>
+      <c r="N22">
+        <v>71.17</v>
+      </c>
+      <c r="O22">
+        <v>52.29</v>
+      </c>
+      <c r="P22">
+        <v>0.12</v>
+      </c>
+      <c r="Q22">
+        <v>0.11</v>
+      </c>
+      <c r="R22">
+        <v>8.07</v>
+      </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>10</v>
       </c>
+      <c r="K23">
+        <v>7.5469999999999997</v>
+      </c>
+      <c r="L23">
+        <v>6.3220000000000001</v>
+      </c>
+      <c r="M23">
+        <v>6.14</v>
+      </c>
+      <c r="N23">
+        <v>80.959999999999994</v>
+      </c>
+      <c r="O23">
+        <v>63.89</v>
+      </c>
+      <c r="P23">
+        <v>0.12</v>
+      </c>
+      <c r="Q23">
+        <v>0.11</v>
+      </c>
+      <c r="R23">
+        <v>8.15</v>
+      </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -25017,37 +27382,37 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" t="e">
+      <c r="K24">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L24" t="e">
+        <v>8.0967999999999982</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M24" t="e">
+        <v>6.6012000000000004</v>
+      </c>
+      <c r="M24">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N24" t="e">
+        <v>6.173</v>
+      </c>
+      <c r="N24">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O24" t="e">
+        <v>77.936000000000007</v>
+      </c>
+      <c r="O24">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P24" t="e">
+        <v>55.256000000000007</v>
+      </c>
+      <c r="P24">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q24" t="e">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R24" t="e">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>8.0749999999999993</v>
       </c>
       <c r="T24" t="e">
         <f t="shared" si="3"/>
@@ -25061,8 +27426,9 @@
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W24">
-        <v>89.29</v>
+      <c r="W24" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="X24" t="e">
         <f t="shared" si="3"/>
@@ -25109,43 +27475,44 @@
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="H25" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
       </c>
       <c r="I25" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" t="e">
+      <c r="K25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L25" t="e">
+        <v>0.65090395263476131</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M25" t="e">
+        <v>0.4505509713426194</v>
+      </c>
+      <c r="M25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N25" t="e">
+        <v>0.57652310351701352</v>
+      </c>
+      <c r="N25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O25" t="e">
+        <v>4.8553228522931384</v>
+      </c>
+      <c r="O25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>5.593164876287247</v>
       </c>
       <c r="P25">
+        <f t="shared" si="4"/>
+        <v>3.1622776601683777E-3</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
-      <c r="Q25" t="e">
+      <c r="R25">
         <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R25" t="e">
-        <f t="shared" si="4"/>
-        <v>#DIV/0!</v>
+        <v>4.0620192023179832E-2</v>
       </c>
       <c r="T25" t="e">
         <f t="shared" si="4"/>
@@ -25298,51 +27665,291 @@
       <c r="A30">
         <v>1</v>
       </c>
+      <c r="K30">
+        <v>7.5369999999999999</v>
+      </c>
+      <c r="L30">
+        <v>6.5339999999999998</v>
+      </c>
+      <c r="M30">
+        <v>6.7</v>
+      </c>
+      <c r="N30">
+        <v>77.94</v>
+      </c>
+      <c r="O30">
+        <v>50.37</v>
+      </c>
+      <c r="P30">
+        <v>0.12</v>
+      </c>
+      <c r="Q30">
+        <v>0.11</v>
+      </c>
+      <c r="R30">
+        <v>7.93</v>
+      </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
+      <c r="K31">
+        <v>9.6210000000000004</v>
+      </c>
+      <c r="L31">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="M31">
+        <v>5.43</v>
+      </c>
+      <c r="N31">
+        <v>66.94</v>
+      </c>
+      <c r="O31">
+        <v>61.58</v>
+      </c>
+      <c r="P31">
+        <v>0.12</v>
+      </c>
+      <c r="Q31">
+        <v>0.11</v>
+      </c>
+      <c r="R31">
+        <v>7.96</v>
+      </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>3</v>
       </c>
+      <c r="K32">
+        <v>8.7249999999999996</v>
+      </c>
+      <c r="L32">
+        <v>7.7220000000000004</v>
+      </c>
+      <c r="M32">
+        <v>4.93</v>
+      </c>
+      <c r="N32">
+        <v>65.7</v>
+      </c>
+      <c r="O32">
+        <v>76.34</v>
+      </c>
+      <c r="P32">
+        <v>0.11</v>
+      </c>
+      <c r="Q32">
+        <v>0.11</v>
+      </c>
+      <c r="R32">
+        <v>9.94</v>
+      </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
+      <c r="K33">
+        <v>7.7450000000000001</v>
+      </c>
+      <c r="L33">
+        <v>6.6950000000000003</v>
+      </c>
+      <c r="M33">
+        <v>6.16</v>
+      </c>
+      <c r="N33">
+        <v>76.34</v>
+      </c>
+      <c r="O33">
+        <v>73.17</v>
+      </c>
+      <c r="P33">
+        <v>0.12</v>
+      </c>
+      <c r="Q33">
+        <v>0.11</v>
+      </c>
+      <c r="R33">
+        <v>9.9700000000000006</v>
+      </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
+      <c r="K34">
+        <v>7.5330000000000004</v>
+      </c>
+      <c r="L34">
+        <v>6.5789999999999997</v>
+      </c>
+      <c r="M34">
+        <v>6.18</v>
+      </c>
+      <c r="N34">
+        <v>73.17</v>
+      </c>
+      <c r="O34">
+        <v>51.26</v>
+      </c>
+      <c r="P34">
+        <v>0.12</v>
+      </c>
+      <c r="Q34">
+        <v>0.11</v>
+      </c>
+      <c r="R34">
+        <v>8.02</v>
+      </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6</v>
       </c>
+      <c r="K35">
+        <v>9.5640000000000001</v>
+      </c>
+      <c r="L35">
+        <v>7.5659999999999998</v>
+      </c>
+      <c r="M35">
+        <v>5.26</v>
+      </c>
+      <c r="N35">
+        <v>51.26</v>
+      </c>
+      <c r="O35">
+        <v>65.03</v>
+      </c>
+      <c r="P35">
+        <v>0.11</v>
+      </c>
+      <c r="Q35">
+        <v>0.11</v>
+      </c>
+      <c r="R35">
+        <v>8</v>
+      </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>7</v>
       </c>
+      <c r="K36">
+        <v>10.571999999999999</v>
+      </c>
+      <c r="L36">
+        <v>8.5280000000000005</v>
+      </c>
+      <c r="M36">
+        <v>5.3</v>
+      </c>
+      <c r="N36">
+        <v>65.03</v>
+      </c>
+      <c r="O36">
+        <v>61.45</v>
+      </c>
+      <c r="P36">
+        <v>0.12</v>
+      </c>
+      <c r="Q36">
+        <v>0.11</v>
+      </c>
+      <c r="R36">
+        <v>8.0299999999999994</v>
+      </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>8</v>
       </c>
+      <c r="K37">
+        <v>7.7869999999999999</v>
+      </c>
+      <c r="L37">
+        <v>6.8419999999999996</v>
+      </c>
+      <c r="M37">
+        <v>6.76</v>
+      </c>
+      <c r="N37">
+        <v>61.45</v>
+      </c>
+      <c r="O37">
+        <v>58.24</v>
+      </c>
+      <c r="P37">
+        <v>0.12</v>
+      </c>
+      <c r="Q37">
+        <v>0.11</v>
+      </c>
+      <c r="R37">
+        <v>8.08</v>
+      </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>9</v>
       </c>
+      <c r="K38">
+        <v>7.4</v>
+      </c>
+      <c r="L38">
+        <v>6.3810000000000002</v>
+      </c>
+      <c r="M38">
+        <v>6.03</v>
+      </c>
+      <c r="N38">
+        <v>58.24</v>
+      </c>
+      <c r="O38">
+        <v>65.25</v>
+      </c>
+      <c r="P38">
+        <v>0.11</v>
+      </c>
+      <c r="Q38">
+        <v>0.11</v>
+      </c>
+      <c r="R38">
+        <v>8.09</v>
+      </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>10</v>
       </c>
+      <c r="K39">
+        <v>9.2210000000000001</v>
+      </c>
+      <c r="L39">
+        <v>6.9989999999999997</v>
+      </c>
+      <c r="M39">
+        <v>5.69</v>
+      </c>
+      <c r="N39">
+        <v>65.25</v>
+      </c>
+      <c r="O39">
+        <v>65.09</v>
+      </c>
+      <c r="P39">
+        <v>0.12</v>
+      </c>
+      <c r="Q39">
+        <v>0.11</v>
+      </c>
+      <c r="R39">
+        <v>8.01</v>
+      </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -25380,37 +27987,37 @@
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K40" t="e">
+      <c r="K40">
         <f t="shared" ref="K40:R40" si="6">AVERAGE(K30:K39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L40" t="e">
+        <v>8.5705000000000009</v>
+      </c>
+      <c r="L40">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M40" t="e">
+        <v>7.2645999999999988</v>
+      </c>
+      <c r="M40">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N40" t="e">
+        <v>5.8439999999999994</v>
+      </c>
+      <c r="N40">
+        <f>AVERAGE(N30:N39)</f>
+        <v>66.132000000000005</v>
+      </c>
+      <c r="O40">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O40" t="e">
+        <v>62.778000000000006</v>
+      </c>
+      <c r="P40">
+        <f>AVERAGE(P30:P39)</f>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="Q40">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P40" t="e">
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Q40" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R40" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
+        <v>8.4030000000000005</v>
       </c>
       <c r="T40" t="e">
         <f t="shared" ref="T40:AA40" si="7">AVERAGE(T30:T39)</f>
@@ -25481,67 +28088,67 @@
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K41" t="e">
+      <c r="K41">
         <f t="shared" ref="K41:R41" si="9">STDEV(K30:K39)</f>
+        <v>1.1231669758123821</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="9"/>
+        <v>0.85711663928159265</v>
+      </c>
+      <c r="M41">
+        <f>STDEV(M30:M39)</f>
+        <v>0.62241822309799022</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:Q41" si="10">STDEV(N30:N39)</f>
+        <v>8.1743403403577783</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="10"/>
+        <v>8.2923268413904285</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="10"/>
+        <v>4.8304589153964766E-3</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="9"/>
+        <v>0.81940425513499338</v>
+      </c>
+      <c r="T41" t="e">
+        <f t="shared" ref="T41:AA41" si="11">STDEV(T30:T39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L41" t="e">
-        <f t="shared" si="9"/>
+      <c r="U41" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" t="e">
-        <f t="shared" si="9"/>
+      <c r="V41" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N41" t="e">
-        <f t="shared" si="9"/>
+      <c r="W41" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O41" t="e">
-        <f t="shared" si="9"/>
+      <c r="X41" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P41">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="e">
-        <f t="shared" si="9"/>
+      <c r="Y41" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R41" t="e">
-        <f t="shared" si="9"/>
+      <c r="Z41" t="e">
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T41" t="e">
-        <f t="shared" ref="T41:AA41" si="10">STDEV(T30:T39)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U41" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V41" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W41" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X41" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y41" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z41" t="e">
-        <f t="shared" si="10"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AA41" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -25689,51 +28296,291 @@
       <c r="A46">
         <v>1</v>
       </c>
+      <c r="K46">
+        <v>7.6360000000000001</v>
+      </c>
+      <c r="L46">
+        <v>6.6289999999999996</v>
+      </c>
+      <c r="M46">
+        <v>6.36</v>
+      </c>
+      <c r="N46">
+        <v>76.8</v>
+      </c>
+      <c r="O46">
+        <v>53.36</v>
+      </c>
+      <c r="P46">
+        <v>0.11</v>
+      </c>
+      <c r="Q46">
+        <v>0.11</v>
+      </c>
+      <c r="R46">
+        <v>7.88</v>
+      </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
+      <c r="K47">
+        <v>7.6269999999999998</v>
+      </c>
+      <c r="L47">
+        <v>6.6029999999999998</v>
+      </c>
+      <c r="M47">
+        <v>6.59</v>
+      </c>
+      <c r="N47">
+        <v>76.819999999999993</v>
+      </c>
+      <c r="O47">
+        <v>60.27</v>
+      </c>
+      <c r="P47">
+        <v>0.11</v>
+      </c>
+      <c r="Q47">
+        <v>0.1</v>
+      </c>
+      <c r="R47">
+        <v>7.96</v>
+      </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
+      <c r="K48">
+        <v>7.7770000000000001</v>
+      </c>
+      <c r="L48">
+        <v>6.84</v>
+      </c>
+      <c r="M48">
+        <v>5.97</v>
+      </c>
+      <c r="N48">
+        <v>74.72</v>
+      </c>
+      <c r="O48">
+        <v>56.25</v>
+      </c>
+      <c r="P48">
+        <v>0.12</v>
+      </c>
+      <c r="Q48">
+        <v>0.11</v>
+      </c>
+      <c r="R48">
+        <v>7.79</v>
+      </c>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
+      <c r="K49">
+        <v>7.875</v>
+      </c>
+      <c r="L49">
+        <v>6.7720000000000002</v>
+      </c>
+      <c r="M49">
+        <v>6.06</v>
+      </c>
+      <c r="N49">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="O49">
+        <v>56.43</v>
+      </c>
+      <c r="P49">
+        <v>0.11</v>
+      </c>
+      <c r="Q49">
+        <v>0.11</v>
+      </c>
+      <c r="R49">
+        <v>7.85</v>
+      </c>
     </row>
     <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5</v>
       </c>
+      <c r="K50">
+        <v>7.3650000000000002</v>
+      </c>
+      <c r="L50">
+        <v>6.375</v>
+      </c>
+      <c r="M50">
+        <v>5.81</v>
+      </c>
+      <c r="N50">
+        <v>79.52</v>
+      </c>
+      <c r="O50">
+        <v>59.91</v>
+      </c>
+      <c r="P50">
+        <v>0.11</v>
+      </c>
+      <c r="Q50">
+        <v>0.11</v>
+      </c>
+      <c r="R50">
+        <v>7.82</v>
+      </c>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>6</v>
       </c>
+      <c r="K51">
+        <v>7.9429999999999996</v>
+      </c>
+      <c r="L51">
+        <v>6.96</v>
+      </c>
+      <c r="M51">
+        <v>5.94</v>
+      </c>
+      <c r="N51">
+        <v>73.739999999999995</v>
+      </c>
+      <c r="O51">
+        <v>64.959999999999994</v>
+      </c>
+      <c r="P51">
+        <v>0.11</v>
+      </c>
+      <c r="Q51">
+        <v>0.11</v>
+      </c>
+      <c r="R51">
+        <v>7.82</v>
+      </c>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>7</v>
       </c>
+      <c r="K52">
+        <v>9.6</v>
+      </c>
+      <c r="L52">
+        <v>8.3190000000000008</v>
+      </c>
+      <c r="M52">
+        <v>5.08</v>
+      </c>
+      <c r="N52">
+        <v>61.67</v>
+      </c>
+      <c r="O52">
+        <v>54.52</v>
+      </c>
+      <c r="P52">
+        <v>0.11</v>
+      </c>
+      <c r="Q52">
+        <v>0.11</v>
+      </c>
+      <c r="R52">
+        <v>7.91</v>
+      </c>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>8</v>
       </c>
+      <c r="K53">
+        <v>7.6859999999999999</v>
+      </c>
+      <c r="L53">
+        <v>6.6150000000000002</v>
+      </c>
+      <c r="M53">
+        <v>5.67</v>
+      </c>
+      <c r="N53">
+        <v>76.849999999999994</v>
+      </c>
+      <c r="O53">
+        <v>74.03</v>
+      </c>
+      <c r="P53">
+        <v>0.11</v>
+      </c>
+      <c r="Q53">
+        <v>0.1</v>
+      </c>
+      <c r="R53">
+        <v>7.92</v>
+      </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>9</v>
       </c>
+      <c r="K54">
+        <v>7.4050000000000002</v>
+      </c>
+      <c r="L54">
+        <v>6.4630000000000001</v>
+      </c>
+      <c r="M54">
+        <v>5.83</v>
+      </c>
+      <c r="N54">
+        <v>79.150000000000006</v>
+      </c>
+      <c r="O54">
+        <v>60.28</v>
+      </c>
+      <c r="P54">
+        <v>0.11</v>
+      </c>
+      <c r="Q54">
+        <v>0.1</v>
+      </c>
+      <c r="R54">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>10</v>
       </c>
+      <c r="K55">
+        <v>7.5519999999999996</v>
+      </c>
+      <c r="L55">
+        <v>6.484</v>
+      </c>
+      <c r="M55">
+        <v>5.5</v>
+      </c>
+      <c r="N55">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="O55">
+        <v>65.75</v>
+      </c>
+      <c r="P55">
+        <v>0.11</v>
+      </c>
+      <c r="Q55">
+        <v>0.1</v>
+      </c>
+      <c r="R55">
+        <v>8</v>
+      </c>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -25744,95 +28591,95 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C56" t="e">
-        <f t="shared" ref="C56:I56" si="11">AVERAGE(C46:C55)</f>
+        <f t="shared" ref="C56:I56" si="12">AVERAGE(C46:C55)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D56" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E56" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F56" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G56" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H56" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I56" t="e">
-        <f t="shared" si="11"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K56" t="e">
-        <f t="shared" ref="K56:R56" si="12">AVERAGE(K46:K55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L56" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M56" t="e">
+      <c r="E56" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N56" t="e">
+      <c r="F56" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O56" t="e">
+      <c r="G56" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P56" t="e">
+      <c r="H56" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q56" t="e">
+      <c r="I56" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R56" t="e">
-        <f t="shared" si="12"/>
+      <c r="K56">
+        <f t="shared" ref="K56:R56" si="13">AVERAGE(K46:K55)</f>
+        <v>7.8466000000000005</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="13"/>
+        <v>6.806</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="13"/>
+        <v>5.8809999999999993</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="13"/>
+        <v>75.248999999999995</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="13"/>
+        <v>60.576000000000001</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="13"/>
+        <v>0.11099999999999999</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="13"/>
+        <v>0.10600000000000001</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="13"/>
+        <v>7.8850000000000007</v>
+      </c>
+      <c r="T56" t="e">
+        <f t="shared" ref="T56:AA56" si="14">AVERAGE(T46:T55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T56" t="e">
-        <f t="shared" ref="T56:AA56" si="13">AVERAGE(T46:T55)</f>
+      <c r="U56" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U56" t="e">
-        <f t="shared" si="13"/>
+      <c r="V56" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V56" t="e">
-        <f t="shared" si="13"/>
+      <c r="W56" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W56" t="e">
-        <f t="shared" si="13"/>
+      <c r="X56" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X56" t="e">
-        <f t="shared" si="13"/>
+      <c r="Y56" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y56" t="e">
-        <f t="shared" si="13"/>
+      <c r="Z56" t="e">
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z56" t="e">
-        <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AA56" t="e">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -25845,95 +28692,95 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C57" t="e">
-        <f t="shared" ref="C57:I57" si="14">STDEV(C46:C55)</f>
+        <f t="shared" ref="C57:I57" si="15">STDEV(C46:C55)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D57" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E57" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F57" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H57" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I57" t="e">
-        <f t="shared" si="14"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K57" t="e">
-        <f t="shared" ref="K57:R57" si="15">STDEV(K46:K55)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L57" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M57" t="e">
+      <c r="E57" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N57" t="e">
+      <c r="F57" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O57" t="e">
+      <c r="G57" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P57" t="e">
+      <c r="H57" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q57" t="e">
+      <c r="I57" t="e">
         <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R57" t="e">
-        <f t="shared" si="15"/>
+      <c r="K57">
+        <f t="shared" ref="K57:R57" si="16">STDEV(K46:K55)</f>
+        <v>0.64303640816226104</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="16"/>
+        <v>0.56088323205458746</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="16"/>
+        <v>0.4235419433512787</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="16"/>
+        <v>5.1239100738053986</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="16"/>
+        <v>6.2563216029868531</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="16"/>
+        <v>3.1622776601683772E-3</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="16"/>
+        <v>5.1639777949432199E-3</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="16"/>
+        <v>6.6374359172466216E-2</v>
+      </c>
+      <c r="T57" t="e">
+        <f t="shared" ref="T57:AA57" si="17">STDEV(T46:T55)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T57" t="e">
-        <f t="shared" ref="T57:AA57" si="16">STDEV(T46:T55)</f>
+      <c r="U57" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U57" t="e">
-        <f t="shared" si="16"/>
+      <c r="V57" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V57" t="e">
-        <f t="shared" si="16"/>
+      <c r="W57" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W57" t="e">
-        <f t="shared" si="16"/>
+      <c r="X57" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X57" t="e">
-        <f t="shared" si="16"/>
+      <c r="Y57" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y57" t="e">
-        <f t="shared" si="16"/>
+      <c r="Z57" t="e">
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z57" t="e">
-        <f t="shared" si="16"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AA57" t="e">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26055,51 +28902,291 @@
       <c r="A62">
         <v>1</v>
       </c>
+      <c r="K62">
+        <v>8.6150000000000002</v>
+      </c>
+      <c r="L62">
+        <v>7.617</v>
+      </c>
+      <c r="M62">
+        <v>5.44</v>
+      </c>
+      <c r="N62">
+        <v>66.84</v>
+      </c>
+      <c r="O62">
+        <v>61.53</v>
+      </c>
+      <c r="P62">
+        <v>0.12</v>
+      </c>
+      <c r="Q62">
+        <v>0.11</v>
+      </c>
+      <c r="R62">
+        <v>7.86</v>
+      </c>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
+      <c r="K63">
+        <v>8.1329999999999991</v>
+      </c>
+      <c r="L63">
+        <v>7.0629999999999997</v>
+      </c>
+      <c r="M63">
+        <v>5.65</v>
+      </c>
+      <c r="N63">
+        <v>72.290000000000006</v>
+      </c>
+      <c r="O63">
+        <v>51.86</v>
+      </c>
+      <c r="P63">
+        <v>0.11</v>
+      </c>
+      <c r="Q63">
+        <v>0.1</v>
+      </c>
+      <c r="R63">
+        <v>7.84</v>
+      </c>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
+      <c r="K64">
+        <v>7.3280000000000003</v>
+      </c>
+      <c r="L64">
+        <v>6.3230000000000004</v>
+      </c>
+      <c r="M64">
+        <v>6.01</v>
+      </c>
+      <c r="N64">
+        <v>79.88</v>
+      </c>
+      <c r="O64">
+        <v>68.19</v>
+      </c>
+      <c r="P64">
+        <v>0.12</v>
+      </c>
+      <c r="Q64">
+        <v>0.1</v>
+      </c>
+      <c r="R64">
+        <v>7.84</v>
+      </c>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
+      <c r="K65">
+        <v>7.9729999999999999</v>
+      </c>
+      <c r="L65">
+        <v>6.9269999999999996</v>
+      </c>
+      <c r="M65">
+        <v>5.38</v>
+      </c>
+      <c r="N65">
+        <v>73.41</v>
+      </c>
+      <c r="O65">
+        <v>58.44</v>
+      </c>
+      <c r="P65">
+        <v>0.12</v>
+      </c>
+      <c r="Q65">
+        <v>0.1</v>
+      </c>
+      <c r="R65">
+        <v>7.75</v>
+      </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5</v>
       </c>
+      <c r="K66">
+        <v>10.73</v>
+      </c>
+      <c r="L66">
+        <v>9.0820000000000007</v>
+      </c>
+      <c r="M66">
+        <v>5.17</v>
+      </c>
+      <c r="N66">
+        <v>56.74</v>
+      </c>
+      <c r="O66">
+        <v>59.11</v>
+      </c>
+      <c r="P66">
+        <v>0.12</v>
+      </c>
+      <c r="Q66">
+        <v>0.11</v>
+      </c>
+      <c r="R66">
+        <v>7.92</v>
+      </c>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>6</v>
       </c>
+      <c r="K67">
+        <v>7.7409999999999997</v>
+      </c>
+      <c r="L67">
+        <v>6.6630000000000003</v>
+      </c>
+      <c r="M67">
+        <v>5.73</v>
+      </c>
+      <c r="N67">
+        <v>76.56</v>
+      </c>
+      <c r="O67">
+        <v>69.88</v>
+      </c>
+      <c r="P67">
+        <v>0.11</v>
+      </c>
+      <c r="Q67">
+        <v>0.1</v>
+      </c>
+      <c r="R67">
+        <v>7.92</v>
+      </c>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>7</v>
       </c>
+      <c r="K68">
+        <v>7.5129999999999999</v>
+      </c>
+      <c r="L68">
+        <v>6.484</v>
+      </c>
+      <c r="M68">
+        <v>6.31</v>
+      </c>
+      <c r="N68">
+        <v>78.14</v>
+      </c>
+      <c r="O68">
+        <v>71.52</v>
+      </c>
+      <c r="P68">
+        <v>0.12</v>
+      </c>
+      <c r="Q68">
+        <v>0.1</v>
+      </c>
+      <c r="R68">
+        <v>7.92</v>
+      </c>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>8</v>
       </c>
+      <c r="K69">
+        <v>7.9189999999999996</v>
+      </c>
+      <c r="L69">
+        <v>6.827</v>
+      </c>
+      <c r="M69">
+        <v>5.67</v>
+      </c>
+      <c r="N69">
+        <v>75.37</v>
+      </c>
+      <c r="O69">
+        <v>72.63</v>
+      </c>
+      <c r="P69">
+        <v>0.11</v>
+      </c>
+      <c r="Q69">
+        <v>0.1</v>
+      </c>
+      <c r="R69">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>9</v>
       </c>
+      <c r="K70">
+        <v>7.4539999999999997</v>
+      </c>
+      <c r="L70">
+        <v>6.4279999999999999</v>
+      </c>
+      <c r="M70">
+        <v>5.91</v>
+      </c>
+      <c r="N70">
+        <v>78.430000000000007</v>
+      </c>
+      <c r="O70">
+        <v>54.98</v>
+      </c>
+      <c r="P70">
+        <v>0.11</v>
+      </c>
+      <c r="Q70">
+        <v>0.1</v>
+      </c>
+      <c r="R70">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>10</v>
       </c>
+      <c r="K71">
+        <v>7.8979999999999997</v>
+      </c>
+      <c r="L71">
+        <v>6.7939999999999996</v>
+      </c>
+      <c r="M71">
+        <v>5.69</v>
+      </c>
+      <c r="N71">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="O71">
+        <v>61.79</v>
+      </c>
+      <c r="P71">
+        <v>0.11</v>
+      </c>
+      <c r="Q71">
+        <v>0.11</v>
+      </c>
+      <c r="R71">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -26110,95 +29197,95 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C72" t="e">
-        <f t="shared" ref="C72:I72" si="17">AVERAGE(C62:C71)</f>
+        <f t="shared" ref="C72:I72" si="18">AVERAGE(C62:C71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D72" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E72" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F72" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G72" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H72" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I72" t="e">
-        <f t="shared" si="17"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K72" t="e">
-        <f t="shared" ref="K72:R72" si="18">AVERAGE(K62:K71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L72" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M72" t="e">
+      <c r="E72" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N72" t="e">
+      <c r="F72" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O72" t="e">
+      <c r="G72" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P72" t="e">
+      <c r="H72" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q72" t="e">
+      <c r="I72" t="e">
         <f t="shared" si="18"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R72" t="e">
-        <f t="shared" si="18"/>
+      <c r="K72">
+        <f t="shared" ref="K72:R72" si="19">AVERAGE(K62:K71)</f>
+        <v>8.1303999999999981</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="19"/>
+        <v>7.0207999999999995</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="19"/>
+        <v>5.6959999999999997</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="19"/>
+        <v>73.342000000000013</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="19"/>
+        <v>62.992999999999995</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="19"/>
+        <v>0.11500000000000002</v>
+      </c>
+      <c r="Q72">
+        <f t="shared" si="19"/>
+        <v>0.10300000000000001</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="19"/>
+        <v>7.8750000000000018</v>
+      </c>
+      <c r="T72" t="e">
+        <f t="shared" ref="T72:AA72" si="20">AVERAGE(T62:T71)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T72" t="e">
-        <f t="shared" ref="T72:AA72" si="19">AVERAGE(T62:T71)</f>
+      <c r="U72" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U72" t="e">
-        <f t="shared" si="19"/>
+      <c r="V72" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V72" t="e">
-        <f t="shared" si="19"/>
+      <c r="W72" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W72" t="e">
-        <f t="shared" si="19"/>
+      <c r="X72" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X72" t="e">
-        <f t="shared" si="19"/>
+      <c r="Y72" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y72" t="e">
-        <f t="shared" si="19"/>
+      <c r="Z72" t="e">
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z72" t="e">
-        <f t="shared" si="19"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AA72" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26211,95 +29298,95 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C73" t="e">
-        <f t="shared" ref="C73:I73" si="20">STDEV(C62:C71)</f>
+        <f t="shared" ref="C73:I73" si="21">STDEV(C62:C71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D73" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E73" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F73" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G73" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H73" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I73" t="e">
-        <f t="shared" si="20"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K73" t="e">
-        <f t="shared" ref="K73:R73" si="21">STDEV(K62:K71)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L73" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M73" t="e">
-        <f>STDEV(M62:M70)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N73" t="e">
+      <c r="E73" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O73" t="e">
+      <c r="F73" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P73" t="e">
+      <c r="G73" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q73" t="e">
+      <c r="H73" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R73" t="e">
+      <c r="I73" t="e">
         <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
+      <c r="K73">
+        <f t="shared" ref="K73:R73" si="22">STDEV(K62:K71)</f>
+        <v>0.98603675838627902</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="22"/>
+        <v>0.81363980564703176</v>
+      </c>
+      <c r="M73">
+        <f>STDEV(M62:M70)</f>
+        <v>0.34774272098780146</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="22"/>
+        <v>6.9200414256948877</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="22"/>
+        <v>7.2077736584268104</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="22"/>
+        <v>5.2704627669472965E-3</v>
+      </c>
+      <c r="Q73">
+        <f t="shared" si="22"/>
+        <v>4.8304589153964766E-3</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="22"/>
+        <v>5.4006172486732208E-2</v>
+      </c>
       <c r="T73" t="e">
-        <f t="shared" ref="T73:AA73" si="22">STDEV(T62:T71)</f>
+        <f t="shared" ref="T73:AA73" si="23">STDEV(T62:T71)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U73" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="V73" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="W73" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="X73" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Y73" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="Z73" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="AA73" t="e">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26421,51 +29508,291 @@
       <c r="A78">
         <v>1</v>
       </c>
+      <c r="K78">
+        <v>7.359</v>
+      </c>
+      <c r="L78">
+        <v>6.3780000000000001</v>
+      </c>
+      <c r="M78">
+        <v>6.91</v>
+      </c>
+      <c r="N78">
+        <v>79.67</v>
+      </c>
+      <c r="O78">
+        <v>57.56</v>
+      </c>
+      <c r="P78">
+        <v>0.12</v>
+      </c>
+      <c r="Q78">
+        <v>0.1</v>
+      </c>
+      <c r="R78">
+        <v>7.88</v>
+      </c>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
+      <c r="K79">
+        <v>8.9169999999999998</v>
+      </c>
+      <c r="L79">
+        <v>6.69</v>
+      </c>
+      <c r="M79">
+        <v>6.01</v>
+      </c>
+      <c r="N79">
+        <v>76.760000000000005</v>
+      </c>
+      <c r="O79">
+        <v>57.68</v>
+      </c>
+      <c r="P79">
+        <v>0.12</v>
+      </c>
+      <c r="Q79">
+        <v>0.1</v>
+      </c>
+      <c r="R79">
+        <v>7.89</v>
+      </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
+      <c r="K80">
+        <v>7.2190000000000003</v>
+      </c>
+      <c r="L80">
+        <v>6.2240000000000002</v>
+      </c>
+      <c r="M80">
+        <v>5.95</v>
+      </c>
+      <c r="N80">
+        <v>80.83</v>
+      </c>
+      <c r="O80">
+        <v>68.58</v>
+      </c>
+      <c r="P80">
+        <v>0.11</v>
+      </c>
+      <c r="Q80">
+        <v>0.1</v>
+      </c>
+      <c r="R80">
+        <v>7.93</v>
+      </c>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
+      <c r="K81">
+        <v>7.8159999999999998</v>
+      </c>
+      <c r="L81">
+        <v>6.4820000000000002</v>
+      </c>
+      <c r="M81">
+        <v>5.57</v>
+      </c>
+      <c r="N81">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="O81">
+        <v>62.63</v>
+      </c>
+      <c r="P81">
+        <v>0.12</v>
+      </c>
+      <c r="Q81">
+        <v>0.1</v>
+      </c>
+      <c r="R81">
+        <v>7.93</v>
+      </c>
     </row>
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5</v>
       </c>
+      <c r="K82">
+        <v>7.3559999999999999</v>
+      </c>
+      <c r="L82">
+        <v>6.3040000000000003</v>
+      </c>
+      <c r="M82">
+        <v>6.6</v>
+      </c>
+      <c r="N82">
+        <v>79.7</v>
+      </c>
+      <c r="O82">
+        <v>55.13</v>
+      </c>
+      <c r="P82">
+        <v>0.12</v>
+      </c>
+      <c r="Q82">
+        <v>0.1</v>
+      </c>
+      <c r="R82">
+        <v>7.92</v>
+      </c>
     </row>
     <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>6</v>
       </c>
+      <c r="K83">
+        <v>7.3140000000000001</v>
+      </c>
+      <c r="L83">
+        <v>6.3310000000000004</v>
+      </c>
+      <c r="M83">
+        <v>5.4</v>
+      </c>
+      <c r="N83">
+        <v>79.66</v>
+      </c>
+      <c r="O83">
+        <v>59.09</v>
+      </c>
+      <c r="P83">
+        <v>0.11</v>
+      </c>
+      <c r="Q83">
+        <v>0.1</v>
+      </c>
+      <c r="R83">
+        <v>7.91</v>
+      </c>
     </row>
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>7</v>
       </c>
+      <c r="K84">
+        <v>7.2709999999999999</v>
+      </c>
+      <c r="L84">
+        <v>6.2779999999999996</v>
+      </c>
+      <c r="M84">
+        <v>6.38</v>
+      </c>
+      <c r="N84">
+        <v>80.61</v>
+      </c>
+      <c r="O84">
+        <v>55.22</v>
+      </c>
+      <c r="P84">
+        <v>0.12</v>
+      </c>
+      <c r="Q84">
+        <v>0.1</v>
+      </c>
+      <c r="R84">
+        <v>7.94</v>
+      </c>
     </row>
     <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>8</v>
       </c>
+      <c r="K85">
+        <v>7.306</v>
+      </c>
+      <c r="L85">
+        <v>6.3540000000000001</v>
+      </c>
+      <c r="M85">
+        <v>5.72</v>
+      </c>
+      <c r="N85">
+        <v>79.38</v>
+      </c>
+      <c r="O85">
+        <v>51.74</v>
+      </c>
+      <c r="P85">
+        <v>0.11</v>
+      </c>
+      <c r="Q85">
+        <v>0.1</v>
+      </c>
+      <c r="R85">
+        <v>7.89</v>
+      </c>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>9</v>
       </c>
+      <c r="K86">
+        <v>7.4909999999999997</v>
+      </c>
+      <c r="L86">
+        <v>6.5369999999999999</v>
+      </c>
+      <c r="M86">
+        <v>6.8</v>
+      </c>
+      <c r="N86">
+        <v>78.680000000000007</v>
+      </c>
+      <c r="O86">
+        <v>52.62</v>
+      </c>
+      <c r="P86">
+        <v>0.11</v>
+      </c>
+      <c r="Q86">
+        <v>0.11</v>
+      </c>
+      <c r="R86">
+        <v>7.99</v>
+      </c>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>10</v>
       </c>
+      <c r="K87">
+        <v>7.742</v>
+      </c>
+      <c r="L87">
+        <v>6.4489999999999998</v>
+      </c>
+      <c r="M87">
+        <v>5.8</v>
+      </c>
+      <c r="N87">
+        <v>79.290000000000006</v>
+      </c>
+      <c r="O87">
+        <v>66.63</v>
+      </c>
+      <c r="P87">
+        <v>0.11</v>
+      </c>
+      <c r="Q87">
+        <v>0.1</v>
+      </c>
+      <c r="R87">
+        <v>7.98</v>
+      </c>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
@@ -26476,95 +29803,95 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C88" t="e">
-        <f t="shared" ref="C88:I88" si="23">AVERAGE(C78:C87)</f>
+        <f t="shared" ref="C88:I88" si="24">AVERAGE(C78:C87)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D88" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E88" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F88" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G88" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H88" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I88" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K88" t="e">
-        <f t="shared" ref="K88:R88" si="24">AVERAGE(K78:K87)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L88" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M88" t="e">
+      <c r="E88" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N88" t="e">
+      <c r="F88" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O88" t="e">
+      <c r="G88" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P88" t="e">
+      <c r="H88" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q88" t="e">
+      <c r="I88" t="e">
         <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R88" t="e">
-        <f t="shared" si="24"/>
+      <c r="K88">
+        <f t="shared" ref="K88:R88" si="25">AVERAGE(K78:K87)</f>
+        <v>7.5791000000000013</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="25"/>
+        <v>6.4027000000000003</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="25"/>
+        <v>6.113999999999999</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="25"/>
+        <v>79.272999999999996</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="25"/>
+        <v>58.688000000000002</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="25"/>
+        <v>0.11500000000000002</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="25"/>
+        <v>7.9259999999999993</v>
+      </c>
+      <c r="T88" t="e">
+        <f t="shared" ref="T88:AA88" si="26">AVERAGE(T78:T87)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T88" t="e">
-        <f t="shared" ref="T88:AA88" si="25">AVERAGE(T78:T87)</f>
+      <c r="U88" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U88" t="e">
-        <f t="shared" si="25"/>
+      <c r="V88" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V88" t="e">
-        <f t="shared" si="25"/>
+      <c r="W88" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W88" t="e">
-        <f t="shared" si="25"/>
+      <c r="X88" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X88" t="e">
-        <f t="shared" si="25"/>
+      <c r="Y88" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y88" t="e">
-        <f t="shared" si="25"/>
+      <c r="Z88" t="e">
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z88" t="e">
-        <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AA88" t="e">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -26577,100 +29904,114 @@
         <v>#DIV/0!</v>
       </c>
       <c r="C89" t="e">
-        <f t="shared" ref="C89:I89" si="26">STDEV(C78:C87)</f>
+        <f t="shared" ref="C89:I89" si="27">STDEV(C78:C87)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D89" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E89" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F89" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G89" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H89" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I89" t="e">
-        <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K89" t="e">
-        <f t="shared" ref="K89:R89" si="27">STDEV(K78:K87)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L89" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M89" t="e">
+      <c r="E89" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N89" t="e">
+      <c r="F89" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O89" t="e">
+      <c r="G89" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="P89" t="e">
+      <c r="H89" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q89" t="e">
+      <c r="I89" t="e">
         <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R89" t="e">
-        <f t="shared" si="27"/>
+      <c r="K89">
+        <f t="shared" ref="K89:R89" si="28">STDEV(K78:K87)</f>
+        <v>0.51078076401611761</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="28"/>
+        <v>0.13918736373041282</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="28"/>
+        <v>0.52793518120651473</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="28"/>
+        <v>1.1851493107996491</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="28"/>
+        <v>5.6637066779039085</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="28"/>
+        <v>5.2704627669472965E-3</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="28"/>
+        <v>3.1622776601683777E-3</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="28"/>
+        <v>3.687817782917175E-2</v>
+      </c>
+      <c r="T89" t="e">
+        <f t="shared" ref="T89:AA89" si="29">STDEV(T78:T87)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T89" t="e">
-        <f t="shared" ref="T89:AA89" si="28">STDEV(T78:T87)</f>
+      <c r="U89" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U89" t="e">
-        <f t="shared" si="28"/>
+      <c r="V89" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="V89" t="e">
-        <f t="shared" si="28"/>
+      <c r="W89" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="W89" t="e">
-        <f t="shared" si="28"/>
+      <c r="X89" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="X89" t="e">
-        <f t="shared" si="28"/>
+      <c r="Y89" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y89" t="e">
-        <f t="shared" si="28"/>
+      <c r="Z89" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z89" t="e">
-        <f t="shared" si="28"/>
-        <v>#DIV/0!</v>
-      </c>
       <c r="AA89" t="e">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="L7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="P7:Q9"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="T28:AA28"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="K76:R76"/>
     <mergeCell ref="T76:AA76"/>
@@ -26680,20 +30021,6 @@
     <mergeCell ref="B60:I60"/>
     <mergeCell ref="K60:R60"/>
     <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="T28:AA28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="L7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="P7:Q9"/>
-    <mergeCell ref="R7:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documentation/Experiments/LoadBalancingApplication.xlsx
+++ b/Documentation/Experiments/LoadBalancingApplication.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="30">
   <si>
     <t>Run 1</t>
   </si>
@@ -106,6 +106,12 @@
   <si>
     <t>Load Balance 30 requests - pre-process (w/o load balancing) (3 instances of application)</t>
   </si>
+  <si>
+    <t>Percentage improvement in response time by scaling to 3 applications</t>
+  </si>
+  <si>
+    <t>Percentage improvement in  edge CPU use by scaling to 3 applications</t>
+  </si>
 </sst>
 </file>
 
@@ -172,11 +178,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14756,7 +14762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView topLeftCell="V25" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="AN51" sqref="AN51"/>
     </sheetView>
   </sheetViews>
@@ -15116,19 +15122,19 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9">
+      <c r="M7" s="9"/>
+      <c r="N7" s="10">
         <f>(L4-U4)/U4</f>
         <v>-1.1858132270054478E-3</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="9">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10">
         <f>(N4-W4)/W4</f>
         <v>1.0851162749896882E-2</v>
       </c>
@@ -15139,12 +15145,12 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="Z8" s="3"/>
@@ -15152,12 +15158,12 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="10"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="Z9" s="3"/>
@@ -20613,6 +20619,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="T60:AA60"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="R7:R9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="K76:R76"/>
@@ -20629,13 +20642,6 @@
     <mergeCell ref="L7:M9"/>
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="P7:Q9"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="R7:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21006,19 +21012,19 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9">
+      <c r="M7" s="9"/>
+      <c r="N7" s="10">
         <f>(L4-U4)/U4</f>
         <v>0.6120326755282377</v>
       </c>
-      <c r="P7" s="10" t="s">
+      <c r="P7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="9">
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10">
         <f>(N4-W4)/W4</f>
         <v>1.9371228276165591E-2</v>
       </c>
@@ -21027,24 +21033,24 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="10"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
@@ -26505,6 +26511,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="T60:AA60"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="K76:R76"/>
+    <mergeCell ref="T76:AA76"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="K44:R44"/>
+    <mergeCell ref="T44:AA44"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="K2:R2"/>
@@ -26516,18 +26534,6 @@
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="P7:Q9"/>
     <mergeCell ref="R7:R9"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="T28:AA28"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="K44:R44"/>
-    <mergeCell ref="T44:AA44"/>
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="K76:R76"/>
-    <mergeCell ref="T76:AA76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26538,8 +26544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U52" workbookViewId="0">
-      <selection activeCell="AG96" sqref="AG96"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26898,45 +26904,45 @@
       <c r="AB6" s="6"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L7" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="9" t="e">
-        <f>(L4-U4)/U4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="9" t="e">
-        <f>(N4-W4)/W4</f>
-        <v>#DIV/0!</v>
+      <c r="L7" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10">
+        <f>('Load Balance 30'!L4-L4)/L4</f>
+        <v>1.2092194525345135</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="10">
+        <f>('Load Balance 30'!N4-'Load Balance 30 3 instances'!N4)/'Load Balance 30 3 instances'!N4</f>
+        <v>0.26983158211716091</v>
       </c>
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="10"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="10"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="9"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="10"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="10"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
@@ -28101,7 +28107,7 @@
         <v>0.62241822309799022</v>
       </c>
       <c r="N41">
-        <f t="shared" ref="N41:Q41" si="10">STDEV(N30:N39)</f>
+        <f t="shared" ref="N41:P41" si="10">STDEV(N30:N39)</f>
         <v>8.1743403403577783</v>
       </c>
       <c r="O41">
@@ -29998,20 +30004,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="L7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="P7:Q9"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="T28:AA28"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="K76:R76"/>
     <mergeCell ref="T76:AA76"/>
@@ -30021,6 +30013,20 @@
     <mergeCell ref="B60:I60"/>
     <mergeCell ref="K60:R60"/>
     <mergeCell ref="T60:AA60"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="L7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="P7:Q9"/>
+    <mergeCell ref="R7:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Documentation/Experiments/LoadBalancingApplication.xlsx
+++ b/Documentation/Experiments/LoadBalancingApplication.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17830"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Load Balance 10" sheetId="1" r:id="rId1"/>
@@ -178,11 +178,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -262,7 +262,7 @@
           <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>No pre-processing with 10 requests</c:v>
+            <c:v>10 requests - no pre-processing</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -317,7 +317,7 @@
           <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Pre-processing without load balancing with 10 requests</c:v>
+            <c:v>10 requests - without load balancing</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -372,7 +372,7 @@
           <c:idx val="5"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Pre-processing with load balancing with 10 requests</c:v>
+            <c:v>10 requests - with load balancing</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -427,7 +427,7 @@
           <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>No pre-processing with 30 requests</c:v>
+            <c:v>30 requests - no pre-processing</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -523,7 +523,7 @@
           <c:idx val="1"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Pre-processing without load balancing with 30 requests</c:v>
+            <c:v>30 requests - without load balancing</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -619,7 +619,7 @@
           <c:idx val="2"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Pre-processing with load balancing with 30 requests</c:v>
+            <c:v>30 requests - with load balancing</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -4339,7 +4339,7 @@
           <c:idx val="3"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>No pre-processing with 10 requests</c:v>
+            <c:v>10 requests - no pre-processing</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -4394,7 +4394,7 @@
           <c:idx val="4"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Pre-processing without load balancing with 10 requests</c:v>
+            <c:v>10 requests - without load balancing</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -4449,7 +4449,7 @@
           <c:idx val="5"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>Pre-processing with load balancing with 10 requests</c:v>
+            <c:v>10 requests - with load balancing</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -4504,7 +4504,7 @@
           <c:idx val="0"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>No pre-processing with 30 requests</c:v>
+            <c:v>30 requests - no pre-processing</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -4600,7 +4600,7 @@
           <c:idx val="1"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>Pre-processing without load balancing with 30 requests</c:v>
+            <c:v>30 requests - without load balancing</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -4696,7 +4696,7 @@
           <c:idx val="2"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>Pre-processing with load balancing with 30 requests</c:v>
+            <c:v>30 requests - with load balancing</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
@@ -14762,8 +14762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AN51" sqref="AN51"/>
+    <sheetView tabSelected="1" topLeftCell="AA19" workbookViewId="0">
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15122,19 +15122,19 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10">
+      <c r="M7" s="10"/>
+      <c r="N7" s="9">
         <f>(L4-U4)/U4</f>
         <v>-1.1858132270054478E-3</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9">
         <f>(N4-W4)/W4</f>
         <v>1.0851162749896882E-2</v>
       </c>
@@ -15145,12 +15145,12 @@
       <c r="AB7" s="3"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="Z8" s="3"/>
@@ -15158,12 +15158,12 @@
       <c r="AB8" s="3"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="Z9" s="3"/>
@@ -20619,13 +20619,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="R7:R9"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="K76:R76"/>
@@ -20642,6 +20635,13 @@
     <mergeCell ref="L7:M9"/>
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="P7:Q9"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="T60:AA60"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="R7:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -21012,19 +21012,19 @@
       <c r="AB6" s="4"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10">
+      <c r="M7" s="10"/>
+      <c r="N7" s="9">
         <f>(L4-U4)/U4</f>
         <v>0.6120326755282377</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9">
         <f>(N4-W4)/W4</f>
         <v>1.9371228276165591E-2</v>
       </c>
@@ -21033,24 +21033,24 @@
       <c r="AB7" s="4"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
       <c r="AB8" s="4"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
       <c r="AB9" s="4"/>
@@ -26511,18 +26511,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="B60:I60"/>
-    <mergeCell ref="K60:R60"/>
-    <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="K76:R76"/>
-    <mergeCell ref="T76:AA76"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="T28:AA28"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="K44:R44"/>
-    <mergeCell ref="T44:AA44"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="K2:R2"/>
@@ -26534,6 +26522,18 @@
     <mergeCell ref="N7:N9"/>
     <mergeCell ref="P7:Q9"/>
     <mergeCell ref="R7:R9"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="T28:AA28"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="K44:R44"/>
+    <mergeCell ref="T44:AA44"/>
+    <mergeCell ref="B60:I60"/>
+    <mergeCell ref="K60:R60"/>
+    <mergeCell ref="T60:AA60"/>
+    <mergeCell ref="B76:I76"/>
+    <mergeCell ref="K76:R76"/>
+    <mergeCell ref="T76:AA76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -26544,7 +26544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="R58" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
@@ -26904,19 +26904,19 @@
       <c r="AB6" s="6"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10">
+      <c r="M7" s="10"/>
+      <c r="N7" s="9">
         <f>('Load Balance 30'!L4-L4)/L4</f>
         <v>1.2092194525345135</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="10">
+      <c r="Q7" s="10"/>
+      <c r="R7" s="9">
         <f>('Load Balance 30'!N4-'Load Balance 30 3 instances'!N4)/'Load Balance 30 3 instances'!N4</f>
         <v>0.26983158211716091</v>
       </c>
@@ -26925,24 +26925,24 @@
       <c r="AB7" s="6"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="9"/>
       <c r="O8" s="7"/>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="9"/>
       <c r="Z8" s="6"/>
       <c r="AA8" s="6"/>
       <c r="AB8" s="6"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="10"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="9"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="9"/>
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="6"/>
@@ -30004,6 +30004,20 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="L7:M9"/>
+    <mergeCell ref="N7:N9"/>
+    <mergeCell ref="P7:Q9"/>
+    <mergeCell ref="R7:R9"/>
+    <mergeCell ref="B12:I12"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="T12:AA12"/>
+    <mergeCell ref="B28:I28"/>
+    <mergeCell ref="K28:R28"/>
+    <mergeCell ref="T28:AA28"/>
     <mergeCell ref="B76:I76"/>
     <mergeCell ref="K76:R76"/>
     <mergeCell ref="T76:AA76"/>
@@ -30013,20 +30027,6 @@
     <mergeCell ref="B60:I60"/>
     <mergeCell ref="K60:R60"/>
     <mergeCell ref="T60:AA60"/>
-    <mergeCell ref="B12:I12"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="T12:AA12"/>
-    <mergeCell ref="B28:I28"/>
-    <mergeCell ref="K28:R28"/>
-    <mergeCell ref="T28:AA28"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="K2:R2"/>
-    <mergeCell ref="T2:AA2"/>
-    <mergeCell ref="L7:M9"/>
-    <mergeCell ref="N7:N9"/>
-    <mergeCell ref="P7:Q9"/>
-    <mergeCell ref="R7:R9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
